--- a/mathSheet/matn_achievement_B_2016.xlsx
+++ b/mathSheet/matn_achievement_B_2016.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\MYHOME\基礎教育センター\大学連携推進ＧＰ\プレイスメント・到達度最終版(2016)\集計・個票システム(2016以降)\個票計算シートPABCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2016連携数学試験関係（送付用）\集計・個票システム(2016以降)\個票計算シートPABCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="465" yWindow="1350" windowWidth="19395" windowHeight="2745" activeTab="2"/>
+    <workbookView xWindow="465" yWindow="1350" windowWidth="19395" windowHeight="2745" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="B数的思考" sheetId="4" r:id="rId1"/>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BB5" sqref="BB5:BT10"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="BN26" sqref="BN26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1774,15 +1774,15 @@
       <c r="AZ4" s="5"/>
       <c r="BA4" s="5"/>
       <c r="BB4" s="2">
-        <f t="shared" ref="BB4:BB10" si="0">IF(AND(B4=B$2),1,0)</f>
+        <f t="shared" ref="BB4" si="0">IF(AND(B4=B$2),1,0)</f>
         <v>1</v>
       </c>
       <c r="BC4" s="2">
-        <f t="shared" ref="BC4:BC10" si="1">IF(AND(C4=C$2,D4=D$2),1,0)</f>
+        <f t="shared" ref="BC4" si="1">IF(AND(C4=C$2,D4=D$2),1,0)</f>
         <v>1</v>
       </c>
       <c r="BD4" s="2">
-        <f t="shared" ref="BD4:BD10" si="2">IF(AND(E4=E$2,F4=F$2),1,0)</f>
+        <f t="shared" ref="BD4" si="2">IF(AND(E4=E$2,F4=F$2),1,0)</f>
         <v>1</v>
       </c>
       <c r="BE4" s="2">
@@ -1794,15 +1794,15 @@
         <v>0</v>
       </c>
       <c r="BG4" s="2">
-        <f t="shared" ref="BG4:BG10" si="3">IF(N4=N$2,1,0)</f>
+        <f t="shared" ref="BG4" si="3">IF(N4=N$2,1,0)</f>
         <v>1</v>
       </c>
       <c r="BH4" s="2">
-        <f t="shared" ref="BH4:BH10" si="4">IF(AND(O4=O$2,P4=P$2,Q4=Q$2,R4=R$2),1,0)</f>
+        <f t="shared" ref="BH4" si="4">IF(AND(O4=O$2,P4=P$2,Q4=Q$2,R4=R$2),1,0)</f>
         <v>1</v>
       </c>
       <c r="BI4" s="2">
-        <f t="shared" ref="BI4:BK10" si="5">IF(S4=S$2,1,0)</f>
+        <f t="shared" ref="BI4:BK4" si="5">IF(S4=S$2,1,0)</f>
         <v>1</v>
       </c>
       <c r="BJ4" s="2">
@@ -1826,23 +1826,23 @@
         <v>0</v>
       </c>
       <c r="BO4" s="2">
-        <f t="shared" ref="BO4:BO10" si="6">IF(AND(AI4=AI$2,AF4=AF$2,AG4=AG$2,AH4=AH$2),1,0)</f>
+        <f t="shared" ref="BO4" si="6">IF(AND(AI4=AI$2,AF4=AF$2,AG4=AG$2,AH4=AH$2),1,0)</f>
         <v>1</v>
       </c>
       <c r="BP4" s="2">
-        <f t="shared" ref="BP4:BP10" si="7">IF(AND(AK4=AK$2,AJ4=AJ$2),1,0)</f>
+        <f t="shared" ref="BP4" si="7">IF(AND(AK4=AK$2,AJ4=AJ$2),1,0)</f>
         <v>1</v>
       </c>
       <c r="BQ4" s="2">
-        <f t="shared" ref="BQ4:BQ10" si="8">IF(AND(AL4=AL$2,AM4=AM$2),1,0)</f>
+        <f t="shared" ref="BQ4" si="8">IF(AND(AL4=AL$2,AM4=AM$2),1,0)</f>
         <v>1</v>
       </c>
       <c r="BR4" s="2">
-        <f t="shared" ref="BR4:BR10" si="9">IF(AND(AO4=AO$2,AN4=AN$2),1,0)</f>
+        <f t="shared" ref="BR4" si="9">IF(AND(AO4=AO$2,AN4=AN$2),1,0)</f>
         <v>1</v>
       </c>
       <c r="BS4" s="2">
-        <f t="shared" ref="BS4:BS10" si="10">IF(AND(AQ4=AQ$2,AP4=AP$2),1,0)</f>
+        <f t="shared" ref="BS4" si="10">IF(AND(AQ4=AQ$2,AP4=AP$2),1,0)</f>
         <v>1</v>
       </c>
       <c r="BT4" s="2">
@@ -4954,10 +4954,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:EY159"/>
+  <dimension ref="A1:FA159"/>
   <sheetViews>
-    <sheetView topLeftCell="BB1" workbookViewId="0">
-      <selection activeCell="CH17" sqref="CH17"/>
+    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
+      <selection activeCell="CS3" sqref="CS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4965,12 +4965,16 @@
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="45" width="2.625" customWidth="1"/>
     <col min="46" max="79" width="2.625" style="8" customWidth="1"/>
-    <col min="80" max="109" width="3.625" customWidth="1"/>
-    <col min="110" max="111" width="3.625" style="3" customWidth="1"/>
-    <col min="112" max="16384" width="9" style="3"/>
+    <col min="80" max="88" width="3.625" customWidth="1"/>
+    <col min="89" max="90" width="3.625" style="8" customWidth="1"/>
+    <col min="91" max="92" width="3.625" customWidth="1"/>
+    <col min="93" max="93" width="3.625" style="8" customWidth="1"/>
+    <col min="94" max="112" width="3.625" customWidth="1"/>
+    <col min="113" max="113" width="3.625" style="3" customWidth="1"/>
+    <col min="114" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -5242,8 +5246,10 @@
       <c r="DE1" s="5"/>
       <c r="DF1" s="5"/>
       <c r="DG1" s="5"/>
-    </row>
-    <row r="2" spans="1:155" x14ac:dyDescent="0.15">
+      <c r="DH1" s="5"/>
+      <c r="DI1" s="5"/>
+    </row>
+    <row r="2" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -5515,8 +5521,10 @@
       <c r="DE2" s="5"/>
       <c r="DF2" s="5"/>
       <c r="DG2" s="5"/>
-    </row>
-    <row r="3" spans="1:155" x14ac:dyDescent="0.15">
+      <c r="DH2" s="5"/>
+      <c r="DI2" s="5"/>
+    </row>
+    <row r="3" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -5697,127 +5705,133 @@
         <v>4</v>
       </c>
       <c r="CL3" s="11">
+        <v>4</v>
+      </c>
+      <c r="CM3" s="11">
+        <v>4</v>
+      </c>
+      <c r="CN3" s="12">
         <v>5</v>
       </c>
-      <c r="CM3" s="12">
+      <c r="CO3" s="12">
         <v>6</v>
       </c>
-      <c r="CN3" s="12">
+      <c r="CP3" s="12">
+        <v>6</v>
+      </c>
+      <c r="CQ3" s="12">
         <v>7</v>
       </c>
-      <c r="CO3" s="12">
+      <c r="CR3" s="12">
         <v>8</v>
       </c>
-      <c r="CP3" s="12">
+      <c r="CS3" s="12">
         <v>8</v>
       </c>
-      <c r="CQ3" s="12">
+      <c r="CT3" s="12">
         <v>9</v>
       </c>
-      <c r="CR3" s="12">
+      <c r="CU3" s="12">
         <v>9</v>
       </c>
-      <c r="CS3" s="12">
+      <c r="CV3" s="12">
         <v>9</v>
       </c>
-      <c r="CT3" s="13">
+      <c r="CW3" s="13">
         <v>10</v>
       </c>
-      <c r="CU3" s="13">
+      <c r="CX3" s="13">
         <v>11</v>
       </c>
-      <c r="CV3" s="13">
+      <c r="CY3" s="13">
         <v>12</v>
       </c>
-      <c r="CW3" s="13">
+      <c r="CZ3" s="13">
         <v>13</v>
       </c>
-      <c r="CX3" s="13">
+      <c r="DA3" s="13">
         <v>13</v>
       </c>
-      <c r="CY3" s="13">
+      <c r="DB3" s="13">
         <v>14</v>
       </c>
-      <c r="CZ3" s="14">
+      <c r="DC3" s="14">
         <v>15</v>
       </c>
-      <c r="DA3" s="14">
+      <c r="DD3" s="14">
         <v>15</v>
       </c>
-      <c r="DB3" s="14">
+      <c r="DE3" s="14">
         <v>15</v>
       </c>
-      <c r="DC3" s="14">
+      <c r="DF3" s="14">
         <v>16</v>
       </c>
-      <c r="DD3" s="14">
+      <c r="DG3" s="14">
         <v>16</v>
       </c>
-      <c r="DE3" s="14">
+      <c r="DH3" s="14">
         <v>17</v>
       </c>
-      <c r="DF3" s="15">
+      <c r="DI3" s="15">
         <v>17</v>
-      </c>
-      <c r="DG3" s="15">
-        <v>17</v>
-      </c>
-      <c r="DK3" s="3">
-        <v>8</v>
       </c>
       <c r="DM3" s="3">
         <v>8</v>
       </c>
       <c r="DO3" s="3">
+        <v>8</v>
+      </c>
+      <c r="DQ3" s="3">
         <v>9</v>
       </c>
-      <c r="DP3" s="3" t="s">
+      <c r="DR3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="DV3" s="3" t="s">
+      <c r="DX3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="DX3" s="3">
+      <c r="DZ3" s="3">
         <v>10</v>
       </c>
-      <c r="DY3" s="3">
+      <c r="EA3" s="3">
         <v>11</v>
       </c>
-      <c r="DZ3" s="3">
+      <c r="EB3" s="3">
         <v>12</v>
-      </c>
-      <c r="EE3" s="3">
-        <v>13</v>
       </c>
       <c r="EG3" s="3">
         <v>13</v>
       </c>
       <c r="EI3" s="3">
+        <v>13</v>
+      </c>
+      <c r="EK3" s="3">
         <v>14</v>
       </c>
-      <c r="EM3" s="3">
+      <c r="EO3" s="3">
         <v>15</v>
       </c>
-      <c r="EO3" s="3" t="s">
+      <c r="EQ3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="EQ3" s="3" t="s">
+      <c r="ES3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="ER3" s="3">
+      <c r="ET3" s="3">
         <v>16</v>
       </c>
-      <c r="EV3" s="3">
+      <c r="EX3" s="3">
         <v>16</v>
       </c>
-      <c r="EX3" s="3">
+      <c r="EZ3" s="3">
         <v>17</v>
       </c>
-      <c r="EY3" s="3" t="s">
+      <c r="FA3" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:155" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -6080,99 +6094,107 @@
         <v>1</v>
       </c>
       <c r="CK4" s="2">
-        <f>IF(AND(AB4=AB$2,AC4=AC$2,AD4=AD$2),1,0)</f>
+        <f>IF(AND(AB4=AB$2),1,0)</f>
         <v>1</v>
       </c>
       <c r="CL4" s="2">
+        <f>IF(AND(AC4=AC$2),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="CM4" s="2">
+        <f>IF(AND(AD4=AD$2),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="CN4" s="2">
         <f>IF(AND(AE4=AE$2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="CM4" s="2">
-        <f>IF(AND(AF4=AF$2,AG4=AG$2),1,0)</f>
+      <c r="CO4" s="2">
+        <f>IF(AND(AF4=AF$2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="CN4" s="2">
+      <c r="CP4" s="2">
+        <f>IF(AND(AG4=AG$2),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="CQ4" s="2">
         <f>IF(AND(AH4=AH$2,AH4&lt;&gt;"",AI4=AI$2,AJ4=AJ$2,AK4=AK$2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="CO4" s="2">
+      <c r="CR4" s="2">
         <f>IF(AND(AL4=AL$2,AM4=AM$2,AM4&lt;&gt;""),1,0)</f>
         <v>0</v>
       </c>
-      <c r="CP4" s="2">
+      <c r="CS4" s="2">
         <f>IF(AND(AN4=AN$2,AO4=AO$2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="CQ4" s="2">
+      <c r="CT4" s="2">
         <f>IF(AND(AP4=AP$2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="CR4" s="2">
+      <c r="CU4" s="2">
         <f>IF(AND(AQ4=AQ$2,AR4=AR$2,AR4&lt;&gt;"",AS4=AS$2,AT4=AT$2,AU4=AU$2,AU4&lt;&gt;"",AV4=AV$2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS4" s="2">
+      <c r="CV4" s="2">
         <f>IF(AND(AW4=AW$2,AX4=AX$2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="CT4" s="2">
+      <c r="CW4" s="2">
         <f>IF(AND(AY4=AY$2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="CU4" s="2">
+      <c r="CX4" s="2">
         <f>IF(AND(AZ4=AZ$2,AZ4&lt;&gt;""),1,0)</f>
         <v>0</v>
       </c>
-      <c r="CV4" s="2">
+      <c r="CY4" s="2">
         <f>IF(AND(BA4=BA$2,BB4=BB$2,BC4=BC$2,BD4=BD$2,BE4=BE$2,BE4&lt;&gt;""),1,0)</f>
         <v>0</v>
       </c>
-      <c r="CW4" s="2">
+      <c r="CZ4" s="2">
         <f>IF(AND(BF4=BF$2,BG4=BG$2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="CX4" s="2">
+      <c r="DA4" s="2">
         <f>IF(AND(BH4=BH$2,BI4=BI$2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="CY4" s="2">
+      <c r="DB4" s="2">
         <f>IF(AND(BJ4=BJ$2,BK4=BK$2,BL4=BL$2,BM4=BM$2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="CZ4" s="2">
+      <c r="DC4" s="2">
         <f>IF(AND(BN4=BN$2,BO4=BO$2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="DA4" s="2">
+      <c r="DD4" s="2">
         <f>IF(AND(BP4=BP$2,BQ4=BQ$2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="DB4" s="2">
+      <c r="DE4" s="2">
         <f>IF(AND(BR4=BR$2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="DC4" s="2">
+      <c r="DF4" s="2">
         <f>IF(AND(BS4=BS$2,BT4=BT$2,BU4=BU$2,BV4=BV$2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="DD4" s="2">
+      <c r="DG4" s="2">
         <f>IF(AND(BW4=BW$2,BX4=BX$2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="DE4" s="2">
+      <c r="DH4" s="2">
         <f>IF(AND(BY4=BY$2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="DF4" s="2">
-        <f>IF(AND(BZ4=BZ$2),1,0)</f>
+      <c r="DI4" s="2">
+        <f>IF(AND(BZ4=BZ$2,CA4=CA$2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="DG4" s="2">
-        <f>IF(AND(CA4=CA$2),1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:155" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6240,99 +6262,107 @@
         <v>0</v>
       </c>
       <c r="CK5" s="2">
-        <f t="shared" ref="CK5:CK13" si="9">IF(AND(AB5=AB$2,AC5=AC$2,AD5=AD$2),1,0)</f>
+        <f t="shared" ref="CK5:CK13" si="9">IF(AND(AB5=AB$2),1,0)</f>
         <v>0</v>
       </c>
       <c r="CL5" s="2">
-        <f t="shared" ref="CL5:CL13" si="10">IF(AND(AE5=AE$2),1,0)</f>
+        <f t="shared" ref="CL5:CL13" si="10">IF(AND(AC5=AC$2),1,0)</f>
         <v>0</v>
       </c>
       <c r="CM5" s="2">
-        <f t="shared" ref="CM5:CM13" si="11">IF(AND(AF5=AF$2,AG5=AG$2),1,0)</f>
+        <f t="shared" ref="CM5:CM13" si="11">IF(AND(AD5=AD$2),1,0)</f>
         <v>0</v>
       </c>
       <c r="CN5" s="2">
-        <f t="shared" ref="CN5:CN13" si="12">IF(AND(AH5=AH$2,AH5&lt;&gt;"",AI5=AI$2,AJ5=AJ$2,AK5=AK$2),1,0)</f>
+        <f t="shared" ref="CN5:CN13" si="12">IF(AND(AE5=AE$2),1,0)</f>
         <v>0</v>
       </c>
       <c r="CO5" s="2">
-        <f t="shared" ref="CO5:CO13" si="13">IF(AND(AL5=AL$2,AM5=AM$2,AM5&lt;&gt;""),1,0)</f>
+        <f t="shared" ref="CO5:CO13" si="13">IF(AND(AF5=AF$2),1,0)</f>
         <v>0</v>
       </c>
       <c r="CP5" s="2">
-        <f t="shared" ref="CP5:CP13" si="14">IF(AND(AN5=AN$2,AO5=AO$2),1,0)</f>
+        <f t="shared" ref="CP5:CP13" si="14">IF(AND(AG5=AG$2),1,0)</f>
         <v>0</v>
       </c>
       <c r="CQ5" s="2">
-        <f t="shared" ref="CQ5:CQ13" si="15">IF(AND(AP5=AP$2),1,0)</f>
+        <f t="shared" ref="CQ5:CQ13" si="15">IF(AND(AH5=AH$2,AH5&lt;&gt;"",AI5=AI$2,AJ5=AJ$2,AK5=AK$2),1,0)</f>
         <v>0</v>
       </c>
       <c r="CR5" s="2">
-        <f t="shared" ref="CR5:CR13" si="16">IF(AND(AQ5=AQ$2,AR5=AR$2,AR5&lt;&gt;"",AS5=AS$2,AT5=AT$2,AU5=AU$2,AU5&lt;&gt;"",AV5=AV$2),1,0)</f>
+        <f t="shared" ref="CR5:CR13" si="16">IF(AND(AL5=AL$2,AM5=AM$2,AM5&lt;&gt;""),1,0)</f>
         <v>0</v>
       </c>
       <c r="CS5" s="2">
-        <f t="shared" ref="CS5:CS13" si="17">IF(AND(AW5=AW$2,AX5=AX$2),1,0)</f>
+        <f t="shared" ref="CS5:CS13" si="17">IF(AND(AN5=AN$2,AO5=AO$2),1,0)</f>
         <v>0</v>
       </c>
       <c r="CT5" s="2">
-        <f t="shared" ref="CT5:CT13" si="18">IF(AND(AY5=AY$2),1,0)</f>
+        <f t="shared" ref="CT5:CT13" si="18">IF(AND(AP5=AP$2),1,0)</f>
         <v>0</v>
       </c>
       <c r="CU5" s="2">
-        <f t="shared" ref="CU5:CU13" si="19">IF(AND(AZ5=AZ$2,AZ5&lt;&gt;""),1,0)</f>
+        <f t="shared" ref="CU5:CU13" si="19">IF(AND(AQ5=AQ$2,AR5=AR$2,AR5&lt;&gt;"",AS5=AS$2,AT5=AT$2,AU5=AU$2,AU5&lt;&gt;"",AV5=AV$2),1,0)</f>
         <v>0</v>
       </c>
       <c r="CV5" s="2">
-        <f t="shared" ref="CV5:CV13" si="20">IF(AND(BA5=BA$2,BB5=BB$2,BC5=BC$2,BD5=BD$2,BE5=BE$2,BE5&lt;&gt;""),1,0)</f>
+        <f t="shared" ref="CV5:CV13" si="20">IF(AND(AW5=AW$2,AX5=AX$2),1,0)</f>
         <v>0</v>
       </c>
       <c r="CW5" s="2">
-        <f t="shared" ref="CW5:CW13" si="21">IF(AND(BF5=BF$2,BG5=BG$2),1,0)</f>
+        <f t="shared" ref="CW5:CW13" si="21">IF(AND(AY5=AY$2),1,0)</f>
         <v>0</v>
       </c>
       <c r="CX5" s="2">
-        <f t="shared" ref="CX5:CX13" si="22">IF(AND(BH5=BH$2,BI5=BI$2),1,0)</f>
+        <f t="shared" ref="CX5:CX13" si="22">IF(AND(AZ5=AZ$2,AZ5&lt;&gt;""),1,0)</f>
         <v>0</v>
       </c>
       <c r="CY5" s="2">
-        <f t="shared" ref="CY5:CY13" si="23">IF(AND(BJ5=BJ$2,BK5=BK$2,BL5=BL$2,BM5=BM$2),1,0)</f>
+        <f t="shared" ref="CY5:CY13" si="23">IF(AND(BA5=BA$2,BB5=BB$2,BC5=BC$2,BD5=BD$2,BE5=BE$2,BE5&lt;&gt;""),1,0)</f>
         <v>0</v>
       </c>
       <c r="CZ5" s="2">
-        <f t="shared" ref="CZ5:CZ13" si="24">IF(AND(BN5=BN$2,BO5=BO$2),1,0)</f>
+        <f t="shared" ref="CZ5:CZ13" si="24">IF(AND(BF5=BF$2,BG5=BG$2),1,0)</f>
         <v>0</v>
       </c>
       <c r="DA5" s="2">
-        <f t="shared" ref="DA5:DA13" si="25">IF(AND(BP5=BP$2,BQ5=BQ$2),1,0)</f>
+        <f t="shared" ref="DA5:DA13" si="25">IF(AND(BH5=BH$2,BI5=BI$2),1,0)</f>
         <v>0</v>
       </c>
       <c r="DB5" s="2">
-        <f t="shared" ref="DB5:DB13" si="26">IF(AND(BR5=BR$2),1,0)</f>
+        <f t="shared" ref="DB5:DB13" si="26">IF(AND(BJ5=BJ$2,BK5=BK$2,BL5=BL$2,BM5=BM$2),1,0)</f>
         <v>0</v>
       </c>
       <c r="DC5" s="2">
-        <f t="shared" ref="DC5:DC13" si="27">IF(AND(BS5=BS$2,BT5=BT$2,BU5=BU$2,BV5=BV$2),1,0)</f>
+        <f t="shared" ref="DC5:DC13" si="27">IF(AND(BN5=BN$2,BO5=BO$2),1,0)</f>
         <v>0</v>
       </c>
       <c r="DD5" s="2">
-        <f t="shared" ref="DD5:DD13" si="28">IF(AND(BW5=BW$2,BX5=BX$2),1,0)</f>
+        <f t="shared" ref="DD5:DD13" si="28">IF(AND(BP5=BP$2,BQ5=BQ$2),1,0)</f>
         <v>0</v>
       </c>
       <c r="DE5" s="2">
-        <f t="shared" ref="DE5:DE13" si="29">IF(AND(BY5=BY$2),1,0)</f>
+        <f t="shared" ref="DE5:DE13" si="29">IF(AND(BR5=BR$2),1,0)</f>
         <v>0</v>
       </c>
       <c r="DF5" s="2">
-        <f t="shared" ref="DF5:DF13" si="30">IF(AND(BZ5=BZ$2),1,0)</f>
+        <f t="shared" ref="DF5:DF13" si="30">IF(AND(BS5=BS$2,BT5=BT$2,BU5=BU$2,BV5=BV$2),1,0)</f>
         <v>0</v>
       </c>
       <c r="DG5" s="2">
-        <f t="shared" ref="DG5:DG13" si="31">IF(AND(CA5=CA$2),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:155" x14ac:dyDescent="0.15">
+        <f t="shared" ref="DG5:DG13" si="31">IF(AND(BW5=BW$2,BX5=BX$2),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DH5" s="2">
+        <f t="shared" ref="DH5:DH13" si="32">IF(AND(BY5=BY$2),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DI5" s="2">
+        <f t="shared" ref="DI5:DI13" si="33">IF(AND(BZ5=BZ$2,CA5=CA$2),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -6464,8 +6494,16 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:155" x14ac:dyDescent="0.15">
+      <c r="DH6" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="DI6" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:157" x14ac:dyDescent="0.15">
       <c r="CB7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6594,8 +6632,16 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:155" x14ac:dyDescent="0.15">
+      <c r="DH7" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="DI7" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:157" x14ac:dyDescent="0.15">
       <c r="CB8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6724,8 +6770,16 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:155" x14ac:dyDescent="0.15">
+      <c r="DH8" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="DI8" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:157" x14ac:dyDescent="0.15">
       <c r="CB9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6854,8 +6908,16 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:155" x14ac:dyDescent="0.15">
+      <c r="DH9" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="DI9" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:157" x14ac:dyDescent="0.15">
       <c r="CB10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6984,8 +7046,16 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:155" x14ac:dyDescent="0.15">
+      <c r="DH10" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="DI10" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:157" x14ac:dyDescent="0.15">
       <c r="CB11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7114,8 +7184,16 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:155" x14ac:dyDescent="0.15">
+      <c r="DH11" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="DI11" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:157" x14ac:dyDescent="0.15">
       <c r="Z12" s="3"/>
       <c r="CB12" s="2">
         <f t="shared" si="0"/>
@@ -7245,8 +7323,16 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:155" x14ac:dyDescent="0.15">
+      <c r="DH12" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="DI12" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:157" x14ac:dyDescent="0.15">
       <c r="CB13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7375,8 +7461,16 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:155" x14ac:dyDescent="0.15">
+      <c r="DH13" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="DI13" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:157" x14ac:dyDescent="0.15">
       <c r="CB14" s="3"/>
       <c r="CC14" s="3"/>
       <c r="CD14" s="3"/>
@@ -7407,8 +7501,11 @@
       <c r="DC14" s="3"/>
       <c r="DD14" s="3"/>
       <c r="DE14" s="3"/>
-    </row>
-    <row r="15" spans="1:155" x14ac:dyDescent="0.15">
+      <c r="DF14" s="3"/>
+      <c r="DG14" s="3"/>
+      <c r="DH14" s="3"/>
+    </row>
+    <row r="15" spans="1:157" x14ac:dyDescent="0.15">
       <c r="CB15" s="3"/>
       <c r="CC15" s="3"/>
       <c r="CD15" s="3"/>
@@ -7439,8 +7536,11 @@
       <c r="DC15" s="3"/>
       <c r="DD15" s="3"/>
       <c r="DE15" s="3"/>
-    </row>
-    <row r="16" spans="1:155" x14ac:dyDescent="0.15">
+      <c r="DF15" s="3"/>
+      <c r="DG15" s="3"/>
+      <c r="DH15" s="3"/>
+    </row>
+    <row r="16" spans="1:157" x14ac:dyDescent="0.15">
       <c r="CB16" s="3"/>
       <c r="CC16" s="3"/>
       <c r="CD16" s="3"/>
@@ -7471,8 +7571,11 @@
       <c r="DC16" s="3"/>
       <c r="DD16" s="3"/>
       <c r="DE16" s="3"/>
-    </row>
-    <row r="17" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF16" s="3"/>
+      <c r="DG16" s="3"/>
+      <c r="DH16" s="3"/>
+    </row>
+    <row r="17" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB17" s="3"/>
       <c r="CC17" s="3"/>
       <c r="CD17" s="3"/>
@@ -7503,8 +7606,11 @@
       <c r="DC17" s="3"/>
       <c r="DD17" s="3"/>
       <c r="DE17" s="3"/>
-    </row>
-    <row r="18" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF17" s="3"/>
+      <c r="DG17" s="3"/>
+      <c r="DH17" s="3"/>
+    </row>
+    <row r="18" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB18" s="3"/>
       <c r="CC18" s="3"/>
       <c r="CD18" s="3"/>
@@ -7535,8 +7641,11 @@
       <c r="DC18" s="3"/>
       <c r="DD18" s="3"/>
       <c r="DE18" s="3"/>
-    </row>
-    <row r="19" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF18" s="3"/>
+      <c r="DG18" s="3"/>
+      <c r="DH18" s="3"/>
+    </row>
+    <row r="19" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB19" s="3"/>
       <c r="CC19" s="3"/>
       <c r="CD19" s="3"/>
@@ -7567,8 +7676,11 @@
       <c r="DC19" s="3"/>
       <c r="DD19" s="3"/>
       <c r="DE19" s="3"/>
-    </row>
-    <row r="20" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF19" s="3"/>
+      <c r="DG19" s="3"/>
+      <c r="DH19" s="3"/>
+    </row>
+    <row r="20" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB20" s="3"/>
       <c r="CC20" s="3"/>
       <c r="CD20" s="3"/>
@@ -7599,8 +7711,11 @@
       <c r="DC20" s="3"/>
       <c r="DD20" s="3"/>
       <c r="DE20" s="3"/>
-    </row>
-    <row r="21" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF20" s="3"/>
+      <c r="DG20" s="3"/>
+      <c r="DH20" s="3"/>
+    </row>
+    <row r="21" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB21" s="3"/>
       <c r="CC21" s="3"/>
       <c r="CD21" s="3"/>
@@ -7631,8 +7746,11 @@
       <c r="DC21" s="3"/>
       <c r="DD21" s="3"/>
       <c r="DE21" s="3"/>
-    </row>
-    <row r="22" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF21" s="3"/>
+      <c r="DG21" s="3"/>
+      <c r="DH21" s="3"/>
+    </row>
+    <row r="22" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB22" s="3"/>
       <c r="CC22" s="3"/>
       <c r="CD22" s="3"/>
@@ -7663,8 +7781,11 @@
       <c r="DC22" s="3"/>
       <c r="DD22" s="3"/>
       <c r="DE22" s="3"/>
-    </row>
-    <row r="23" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF22" s="3"/>
+      <c r="DG22" s="3"/>
+      <c r="DH22" s="3"/>
+    </row>
+    <row r="23" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB23" s="3"/>
       <c r="CC23" s="3"/>
       <c r="CD23" s="3"/>
@@ -7695,8 +7816,11 @@
       <c r="DC23" s="3"/>
       <c r="DD23" s="3"/>
       <c r="DE23" s="3"/>
-    </row>
-    <row r="24" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF23" s="3"/>
+      <c r="DG23" s="3"/>
+      <c r="DH23" s="3"/>
+    </row>
+    <row r="24" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB24" s="3"/>
       <c r="CC24" s="3"/>
       <c r="CD24" s="3"/>
@@ -7727,8 +7851,11 @@
       <c r="DC24" s="3"/>
       <c r="DD24" s="3"/>
       <c r="DE24" s="3"/>
-    </row>
-    <row r="25" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF24" s="3"/>
+      <c r="DG24" s="3"/>
+      <c r="DH24" s="3"/>
+    </row>
+    <row r="25" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB25" s="3"/>
       <c r="CC25" s="3"/>
       <c r="CD25" s="3"/>
@@ -7759,8 +7886,11 @@
       <c r="DC25" s="3"/>
       <c r="DD25" s="3"/>
       <c r="DE25" s="3"/>
-    </row>
-    <row r="26" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF25" s="3"/>
+      <c r="DG25" s="3"/>
+      <c r="DH25" s="3"/>
+    </row>
+    <row r="26" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB26" s="3"/>
       <c r="CC26" s="3"/>
       <c r="CD26" s="3"/>
@@ -7791,8 +7921,11 @@
       <c r="DC26" s="3"/>
       <c r="DD26" s="3"/>
       <c r="DE26" s="3"/>
-    </row>
-    <row r="27" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF26" s="3"/>
+      <c r="DG26" s="3"/>
+      <c r="DH26" s="3"/>
+    </row>
+    <row r="27" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB27" s="3"/>
       <c r="CC27" s="3"/>
       <c r="CD27" s="3"/>
@@ -7823,8 +7956,11 @@
       <c r="DC27" s="3"/>
       <c r="DD27" s="3"/>
       <c r="DE27" s="3"/>
-    </row>
-    <row r="28" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF27" s="3"/>
+      <c r="DG27" s="3"/>
+      <c r="DH27" s="3"/>
+    </row>
+    <row r="28" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB28" s="3"/>
       <c r="CC28" s="3"/>
       <c r="CD28" s="3"/>
@@ -7855,8 +7991,11 @@
       <c r="DC28" s="3"/>
       <c r="DD28" s="3"/>
       <c r="DE28" s="3"/>
-    </row>
-    <row r="29" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF28" s="3"/>
+      <c r="DG28" s="3"/>
+      <c r="DH28" s="3"/>
+    </row>
+    <row r="29" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB29" s="3"/>
       <c r="CC29" s="3"/>
       <c r="CD29" s="3"/>
@@ -7887,8 +8026,11 @@
       <c r="DC29" s="3"/>
       <c r="DD29" s="3"/>
       <c r="DE29" s="3"/>
-    </row>
-    <row r="30" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF29" s="3"/>
+      <c r="DG29" s="3"/>
+      <c r="DH29" s="3"/>
+    </row>
+    <row r="30" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB30" s="3"/>
       <c r="CC30" s="3"/>
       <c r="CD30" s="3"/>
@@ -7919,8 +8061,11 @@
       <c r="DC30" s="3"/>
       <c r="DD30" s="3"/>
       <c r="DE30" s="3"/>
-    </row>
-    <row r="31" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF30" s="3"/>
+      <c r="DG30" s="3"/>
+      <c r="DH30" s="3"/>
+    </row>
+    <row r="31" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB31" s="3"/>
       <c r="CC31" s="3"/>
       <c r="CD31" s="3"/>
@@ -7951,8 +8096,11 @@
       <c r="DC31" s="3"/>
       <c r="DD31" s="3"/>
       <c r="DE31" s="3"/>
-    </row>
-    <row r="32" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF31" s="3"/>
+      <c r="DG31" s="3"/>
+      <c r="DH31" s="3"/>
+    </row>
+    <row r="32" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB32" s="3"/>
       <c r="CC32" s="3"/>
       <c r="CD32" s="3"/>
@@ -7983,8 +8131,11 @@
       <c r="DC32" s="3"/>
       <c r="DD32" s="3"/>
       <c r="DE32" s="3"/>
-    </row>
-    <row r="33" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF32" s="3"/>
+      <c r="DG32" s="3"/>
+      <c r="DH32" s="3"/>
+    </row>
+    <row r="33" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB33" s="3"/>
       <c r="CC33" s="3"/>
       <c r="CD33" s="3"/>
@@ -8015,8 +8166,11 @@
       <c r="DC33" s="3"/>
       <c r="DD33" s="3"/>
       <c r="DE33" s="3"/>
-    </row>
-    <row r="34" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF33" s="3"/>
+      <c r="DG33" s="3"/>
+      <c r="DH33" s="3"/>
+    </row>
+    <row r="34" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB34" s="3"/>
       <c r="CC34" s="3"/>
       <c r="CD34" s="3"/>
@@ -8047,8 +8201,11 @@
       <c r="DC34" s="3"/>
       <c r="DD34" s="3"/>
       <c r="DE34" s="3"/>
-    </row>
-    <row r="35" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF34" s="3"/>
+      <c r="DG34" s="3"/>
+      <c r="DH34" s="3"/>
+    </row>
+    <row r="35" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB35" s="3"/>
       <c r="CC35" s="3"/>
       <c r="CD35" s="3"/>
@@ -8079,8 +8236,11 @@
       <c r="DC35" s="3"/>
       <c r="DD35" s="3"/>
       <c r="DE35" s="3"/>
-    </row>
-    <row r="36" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF35" s="3"/>
+      <c r="DG35" s="3"/>
+      <c r="DH35" s="3"/>
+    </row>
+    <row r="36" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB36" s="3"/>
       <c r="CC36" s="3"/>
       <c r="CD36" s="3"/>
@@ -8111,8 +8271,11 @@
       <c r="DC36" s="3"/>
       <c r="DD36" s="3"/>
       <c r="DE36" s="3"/>
-    </row>
-    <row r="37" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF36" s="3"/>
+      <c r="DG36" s="3"/>
+      <c r="DH36" s="3"/>
+    </row>
+    <row r="37" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB37" s="3"/>
       <c r="CC37" s="3"/>
       <c r="CD37" s="3"/>
@@ -8143,8 +8306,11 @@
       <c r="DC37" s="3"/>
       <c r="DD37" s="3"/>
       <c r="DE37" s="3"/>
-    </row>
-    <row r="38" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF37" s="3"/>
+      <c r="DG37" s="3"/>
+      <c r="DH37" s="3"/>
+    </row>
+    <row r="38" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB38" s="3"/>
       <c r="CC38" s="3"/>
       <c r="CD38" s="3"/>
@@ -8175,8 +8341,11 @@
       <c r="DC38" s="3"/>
       <c r="DD38" s="3"/>
       <c r="DE38" s="3"/>
-    </row>
-    <row r="39" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF38" s="3"/>
+      <c r="DG38" s="3"/>
+      <c r="DH38" s="3"/>
+    </row>
+    <row r="39" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB39" s="3"/>
       <c r="CC39" s="3"/>
       <c r="CD39" s="3"/>
@@ -8207,8 +8376,11 @@
       <c r="DC39" s="3"/>
       <c r="DD39" s="3"/>
       <c r="DE39" s="3"/>
-    </row>
-    <row r="40" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF39" s="3"/>
+      <c r="DG39" s="3"/>
+      <c r="DH39" s="3"/>
+    </row>
+    <row r="40" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB40" s="3"/>
       <c r="CC40" s="3"/>
       <c r="CD40" s="3"/>
@@ -8239,8 +8411,11 @@
       <c r="DC40" s="3"/>
       <c r="DD40" s="3"/>
       <c r="DE40" s="3"/>
-    </row>
-    <row r="41" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF40" s="3"/>
+      <c r="DG40" s="3"/>
+      <c r="DH40" s="3"/>
+    </row>
+    <row r="41" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB41" s="3"/>
       <c r="CC41" s="3"/>
       <c r="CD41" s="3"/>
@@ -8271,8 +8446,11 @@
       <c r="DC41" s="3"/>
       <c r="DD41" s="3"/>
       <c r="DE41" s="3"/>
-    </row>
-    <row r="42" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF41" s="3"/>
+      <c r="DG41" s="3"/>
+      <c r="DH41" s="3"/>
+    </row>
+    <row r="42" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB42" s="3"/>
       <c r="CC42" s="3"/>
       <c r="CD42" s="3"/>
@@ -8303,8 +8481,11 @@
       <c r="DC42" s="3"/>
       <c r="DD42" s="3"/>
       <c r="DE42" s="3"/>
-    </row>
-    <row r="43" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF42" s="3"/>
+      <c r="DG42" s="3"/>
+      <c r="DH42" s="3"/>
+    </row>
+    <row r="43" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB43" s="3"/>
       <c r="CC43" s="3"/>
       <c r="CD43" s="3"/>
@@ -8335,8 +8516,11 @@
       <c r="DC43" s="3"/>
       <c r="DD43" s="3"/>
       <c r="DE43" s="3"/>
-    </row>
-    <row r="44" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF43" s="3"/>
+      <c r="DG43" s="3"/>
+      <c r="DH43" s="3"/>
+    </row>
+    <row r="44" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB44" s="3"/>
       <c r="CC44" s="3"/>
       <c r="CD44" s="3"/>
@@ -8367,8 +8551,11 @@
       <c r="DC44" s="3"/>
       <c r="DD44" s="3"/>
       <c r="DE44" s="3"/>
-    </row>
-    <row r="45" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF44" s="3"/>
+      <c r="DG44" s="3"/>
+      <c r="DH44" s="3"/>
+    </row>
+    <row r="45" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB45" s="3"/>
       <c r="CC45" s="3"/>
       <c r="CD45" s="3"/>
@@ -8399,8 +8586,11 @@
       <c r="DC45" s="3"/>
       <c r="DD45" s="3"/>
       <c r="DE45" s="3"/>
-    </row>
-    <row r="46" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF45" s="3"/>
+      <c r="DG45" s="3"/>
+      <c r="DH45" s="3"/>
+    </row>
+    <row r="46" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB46" s="3"/>
       <c r="CC46" s="3"/>
       <c r="CD46" s="3"/>
@@ -8431,8 +8621,11 @@
       <c r="DC46" s="3"/>
       <c r="DD46" s="3"/>
       <c r="DE46" s="3"/>
-    </row>
-    <row r="47" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF46" s="3"/>
+      <c r="DG46" s="3"/>
+      <c r="DH46" s="3"/>
+    </row>
+    <row r="47" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB47" s="3"/>
       <c r="CC47" s="3"/>
       <c r="CD47" s="3"/>
@@ -8463,8 +8656,11 @@
       <c r="DC47" s="3"/>
       <c r="DD47" s="3"/>
       <c r="DE47" s="3"/>
-    </row>
-    <row r="48" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF47" s="3"/>
+      <c r="DG47" s="3"/>
+      <c r="DH47" s="3"/>
+    </row>
+    <row r="48" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB48" s="3"/>
       <c r="CC48" s="3"/>
       <c r="CD48" s="3"/>
@@ -8495,8 +8691,11 @@
       <c r="DC48" s="3"/>
       <c r="DD48" s="3"/>
       <c r="DE48" s="3"/>
-    </row>
-    <row r="49" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF48" s="3"/>
+      <c r="DG48" s="3"/>
+      <c r="DH48" s="3"/>
+    </row>
+    <row r="49" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB49" s="3"/>
       <c r="CC49" s="3"/>
       <c r="CD49" s="3"/>
@@ -8527,8 +8726,11 @@
       <c r="DC49" s="3"/>
       <c r="DD49" s="3"/>
       <c r="DE49" s="3"/>
-    </row>
-    <row r="50" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF49" s="3"/>
+      <c r="DG49" s="3"/>
+      <c r="DH49" s="3"/>
+    </row>
+    <row r="50" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB50" s="3"/>
       <c r="CC50" s="3"/>
       <c r="CD50" s="3"/>
@@ -8559,8 +8761,11 @@
       <c r="DC50" s="3"/>
       <c r="DD50" s="3"/>
       <c r="DE50" s="3"/>
-    </row>
-    <row r="51" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF50" s="3"/>
+      <c r="DG50" s="3"/>
+      <c r="DH50" s="3"/>
+    </row>
+    <row r="51" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB51" s="3"/>
       <c r="CC51" s="3"/>
       <c r="CD51" s="3"/>
@@ -8591,8 +8796,11 @@
       <c r="DC51" s="3"/>
       <c r="DD51" s="3"/>
       <c r="DE51" s="3"/>
-    </row>
-    <row r="52" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF51" s="3"/>
+      <c r="DG51" s="3"/>
+      <c r="DH51" s="3"/>
+    </row>
+    <row r="52" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB52" s="3"/>
       <c r="CC52" s="3"/>
       <c r="CD52" s="3"/>
@@ -8623,8 +8831,11 @@
       <c r="DC52" s="3"/>
       <c r="DD52" s="3"/>
       <c r="DE52" s="3"/>
-    </row>
-    <row r="53" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF52" s="3"/>
+      <c r="DG52" s="3"/>
+      <c r="DH52" s="3"/>
+    </row>
+    <row r="53" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB53" s="3"/>
       <c r="CC53" s="3"/>
       <c r="CD53" s="3"/>
@@ -8655,8 +8866,11 @@
       <c r="DC53" s="3"/>
       <c r="DD53" s="3"/>
       <c r="DE53" s="3"/>
-    </row>
-    <row r="54" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF53" s="3"/>
+      <c r="DG53" s="3"/>
+      <c r="DH53" s="3"/>
+    </row>
+    <row r="54" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB54" s="3"/>
       <c r="CC54" s="3"/>
       <c r="CD54" s="3"/>
@@ -8687,8 +8901,11 @@
       <c r="DC54" s="3"/>
       <c r="DD54" s="3"/>
       <c r="DE54" s="3"/>
-    </row>
-    <row r="55" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF54" s="3"/>
+      <c r="DG54" s="3"/>
+      <c r="DH54" s="3"/>
+    </row>
+    <row r="55" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB55" s="3"/>
       <c r="CC55" s="3"/>
       <c r="CD55" s="3"/>
@@ -8719,8 +8936,11 @@
       <c r="DC55" s="3"/>
       <c r="DD55" s="3"/>
       <c r="DE55" s="3"/>
-    </row>
-    <row r="56" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF55" s="3"/>
+      <c r="DG55" s="3"/>
+      <c r="DH55" s="3"/>
+    </row>
+    <row r="56" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB56" s="3"/>
       <c r="CC56" s="3"/>
       <c r="CD56" s="3"/>
@@ -8751,8 +8971,11 @@
       <c r="DC56" s="3"/>
       <c r="DD56" s="3"/>
       <c r="DE56" s="3"/>
-    </row>
-    <row r="57" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF56" s="3"/>
+      <c r="DG56" s="3"/>
+      <c r="DH56" s="3"/>
+    </row>
+    <row r="57" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB57" s="3"/>
       <c r="CC57" s="3"/>
       <c r="CD57" s="3"/>
@@ -8783,8 +9006,11 @@
       <c r="DC57" s="3"/>
       <c r="DD57" s="3"/>
       <c r="DE57" s="3"/>
-    </row>
-    <row r="58" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF57" s="3"/>
+      <c r="DG57" s="3"/>
+      <c r="DH57" s="3"/>
+    </row>
+    <row r="58" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB58" s="3"/>
       <c r="CC58" s="3"/>
       <c r="CD58" s="3"/>
@@ -8815,8 +9041,11 @@
       <c r="DC58" s="3"/>
       <c r="DD58" s="3"/>
       <c r="DE58" s="3"/>
-    </row>
-    <row r="59" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF58" s="3"/>
+      <c r="DG58" s="3"/>
+      <c r="DH58" s="3"/>
+    </row>
+    <row r="59" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB59" s="3"/>
       <c r="CC59" s="3"/>
       <c r="CD59" s="3"/>
@@ -8847,8 +9076,11 @@
       <c r="DC59" s="3"/>
       <c r="DD59" s="3"/>
       <c r="DE59" s="3"/>
-    </row>
-    <row r="60" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF59" s="3"/>
+      <c r="DG59" s="3"/>
+      <c r="DH59" s="3"/>
+    </row>
+    <row r="60" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB60" s="3"/>
       <c r="CC60" s="3"/>
       <c r="CD60" s="3"/>
@@ -8879,8 +9111,11 @@
       <c r="DC60" s="3"/>
       <c r="DD60" s="3"/>
       <c r="DE60" s="3"/>
-    </row>
-    <row r="61" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF60" s="3"/>
+      <c r="DG60" s="3"/>
+      <c r="DH60" s="3"/>
+    </row>
+    <row r="61" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB61" s="3"/>
       <c r="CC61" s="3"/>
       <c r="CD61" s="3"/>
@@ -8911,8 +9146,11 @@
       <c r="DC61" s="3"/>
       <c r="DD61" s="3"/>
       <c r="DE61" s="3"/>
-    </row>
-    <row r="62" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF61" s="3"/>
+      <c r="DG61" s="3"/>
+      <c r="DH61" s="3"/>
+    </row>
+    <row r="62" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB62" s="3"/>
       <c r="CC62" s="3"/>
       <c r="CD62" s="3"/>
@@ -8943,8 +9181,11 @@
       <c r="DC62" s="3"/>
       <c r="DD62" s="3"/>
       <c r="DE62" s="3"/>
-    </row>
-    <row r="63" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF62" s="3"/>
+      <c r="DG62" s="3"/>
+      <c r="DH62" s="3"/>
+    </row>
+    <row r="63" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB63" s="3"/>
       <c r="CC63" s="3"/>
       <c r="CD63" s="3"/>
@@ -8975,8 +9216,11 @@
       <c r="DC63" s="3"/>
       <c r="DD63" s="3"/>
       <c r="DE63" s="3"/>
-    </row>
-    <row r="64" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF63" s="3"/>
+      <c r="DG63" s="3"/>
+      <c r="DH63" s="3"/>
+    </row>
+    <row r="64" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB64" s="3"/>
       <c r="CC64" s="3"/>
       <c r="CD64" s="3"/>
@@ -9007,8 +9251,11 @@
       <c r="DC64" s="3"/>
       <c r="DD64" s="3"/>
       <c r="DE64" s="3"/>
-    </row>
-    <row r="65" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF64" s="3"/>
+      <c r="DG64" s="3"/>
+      <c r="DH64" s="3"/>
+    </row>
+    <row r="65" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB65" s="3"/>
       <c r="CC65" s="3"/>
       <c r="CD65" s="3"/>
@@ -9039,8 +9286,11 @@
       <c r="DC65" s="3"/>
       <c r="DD65" s="3"/>
       <c r="DE65" s="3"/>
-    </row>
-    <row r="66" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF65" s="3"/>
+      <c r="DG65" s="3"/>
+      <c r="DH65" s="3"/>
+    </row>
+    <row r="66" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB66" s="3"/>
       <c r="CC66" s="3"/>
       <c r="CD66" s="3"/>
@@ -9071,8 +9321,11 @@
       <c r="DC66" s="3"/>
       <c r="DD66" s="3"/>
       <c r="DE66" s="3"/>
-    </row>
-    <row r="67" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF66" s="3"/>
+      <c r="DG66" s="3"/>
+      <c r="DH66" s="3"/>
+    </row>
+    <row r="67" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB67" s="3"/>
       <c r="CC67" s="3"/>
       <c r="CD67" s="3"/>
@@ -9103,8 +9356,11 @@
       <c r="DC67" s="3"/>
       <c r="DD67" s="3"/>
       <c r="DE67" s="3"/>
-    </row>
-    <row r="68" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF67" s="3"/>
+      <c r="DG67" s="3"/>
+      <c r="DH67" s="3"/>
+    </row>
+    <row r="68" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB68" s="3"/>
       <c r="CC68" s="3"/>
       <c r="CD68" s="3"/>
@@ -9135,8 +9391,11 @@
       <c r="DC68" s="3"/>
       <c r="DD68" s="3"/>
       <c r="DE68" s="3"/>
-    </row>
-    <row r="69" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF68" s="3"/>
+      <c r="DG68" s="3"/>
+      <c r="DH68" s="3"/>
+    </row>
+    <row r="69" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB69" s="3"/>
       <c r="CC69" s="3"/>
       <c r="CD69" s="3"/>
@@ -9167,8 +9426,11 @@
       <c r="DC69" s="3"/>
       <c r="DD69" s="3"/>
       <c r="DE69" s="3"/>
-    </row>
-    <row r="70" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF69" s="3"/>
+      <c r="DG69" s="3"/>
+      <c r="DH69" s="3"/>
+    </row>
+    <row r="70" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB70" s="3"/>
       <c r="CC70" s="3"/>
       <c r="CD70" s="3"/>
@@ -9199,8 +9461,11 @@
       <c r="DC70" s="3"/>
       <c r="DD70" s="3"/>
       <c r="DE70" s="3"/>
-    </row>
-    <row r="71" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF70" s="3"/>
+      <c r="DG70" s="3"/>
+      <c r="DH70" s="3"/>
+    </row>
+    <row r="71" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB71" s="3"/>
       <c r="CC71" s="3"/>
       <c r="CD71" s="3"/>
@@ -9231,8 +9496,11 @@
       <c r="DC71" s="3"/>
       <c r="DD71" s="3"/>
       <c r="DE71" s="3"/>
-    </row>
-    <row r="72" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF71" s="3"/>
+      <c r="DG71" s="3"/>
+      <c r="DH71" s="3"/>
+    </row>
+    <row r="72" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB72" s="3"/>
       <c r="CC72" s="3"/>
       <c r="CD72" s="3"/>
@@ -9263,8 +9531,11 @@
       <c r="DC72" s="3"/>
       <c r="DD72" s="3"/>
       <c r="DE72" s="3"/>
-    </row>
-    <row r="73" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF72" s="3"/>
+      <c r="DG72" s="3"/>
+      <c r="DH72" s="3"/>
+    </row>
+    <row r="73" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB73" s="3"/>
       <c r="CC73" s="3"/>
       <c r="CD73" s="3"/>
@@ -9295,8 +9566,11 @@
       <c r="DC73" s="3"/>
       <c r="DD73" s="3"/>
       <c r="DE73" s="3"/>
-    </row>
-    <row r="74" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF73" s="3"/>
+      <c r="DG73" s="3"/>
+      <c r="DH73" s="3"/>
+    </row>
+    <row r="74" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB74" s="3"/>
       <c r="CC74" s="3"/>
       <c r="CD74" s="3"/>
@@ -9327,8 +9601,11 @@
       <c r="DC74" s="3"/>
       <c r="DD74" s="3"/>
       <c r="DE74" s="3"/>
-    </row>
-    <row r="75" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF74" s="3"/>
+      <c r="DG74" s="3"/>
+      <c r="DH74" s="3"/>
+    </row>
+    <row r="75" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB75" s="3"/>
       <c r="CC75" s="3"/>
       <c r="CD75" s="3"/>
@@ -9359,8 +9636,11 @@
       <c r="DC75" s="3"/>
       <c r="DD75" s="3"/>
       <c r="DE75" s="3"/>
-    </row>
-    <row r="76" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF75" s="3"/>
+      <c r="DG75" s="3"/>
+      <c r="DH75" s="3"/>
+    </row>
+    <row r="76" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB76" s="3"/>
       <c r="CC76" s="3"/>
       <c r="CD76" s="3"/>
@@ -9391,8 +9671,11 @@
       <c r="DC76" s="3"/>
       <c r="DD76" s="3"/>
       <c r="DE76" s="3"/>
-    </row>
-    <row r="77" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF76" s="3"/>
+      <c r="DG76" s="3"/>
+      <c r="DH76" s="3"/>
+    </row>
+    <row r="77" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB77" s="3"/>
       <c r="CC77" s="3"/>
       <c r="CD77" s="3"/>
@@ -9423,8 +9706,11 @@
       <c r="DC77" s="3"/>
       <c r="DD77" s="3"/>
       <c r="DE77" s="3"/>
-    </row>
-    <row r="78" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF77" s="3"/>
+      <c r="DG77" s="3"/>
+      <c r="DH77" s="3"/>
+    </row>
+    <row r="78" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB78" s="3"/>
       <c r="CC78" s="3"/>
       <c r="CD78" s="3"/>
@@ -9455,8 +9741,11 @@
       <c r="DC78" s="3"/>
       <c r="DD78" s="3"/>
       <c r="DE78" s="3"/>
-    </row>
-    <row r="79" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF78" s="3"/>
+      <c r="DG78" s="3"/>
+      <c r="DH78" s="3"/>
+    </row>
+    <row r="79" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB79" s="3"/>
       <c r="CC79" s="3"/>
       <c r="CD79" s="3"/>
@@ -9487,8 +9776,11 @@
       <c r="DC79" s="3"/>
       <c r="DD79" s="3"/>
       <c r="DE79" s="3"/>
-    </row>
-    <row r="80" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF79" s="3"/>
+      <c r="DG79" s="3"/>
+      <c r="DH79" s="3"/>
+    </row>
+    <row r="80" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB80" s="3"/>
       <c r="CC80" s="3"/>
       <c r="CD80" s="3"/>
@@ -9519,8 +9811,11 @@
       <c r="DC80" s="3"/>
       <c r="DD80" s="3"/>
       <c r="DE80" s="3"/>
-    </row>
-    <row r="81" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF80" s="3"/>
+      <c r="DG80" s="3"/>
+      <c r="DH80" s="3"/>
+    </row>
+    <row r="81" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB81" s="3"/>
       <c r="CC81" s="3"/>
       <c r="CD81" s="3"/>
@@ -9551,8 +9846,11 @@
       <c r="DC81" s="3"/>
       <c r="DD81" s="3"/>
       <c r="DE81" s="3"/>
-    </row>
-    <row r="82" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF81" s="3"/>
+      <c r="DG81" s="3"/>
+      <c r="DH81" s="3"/>
+    </row>
+    <row r="82" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB82" s="3"/>
       <c r="CC82" s="3"/>
       <c r="CD82" s="3"/>
@@ -9583,8 +9881,11 @@
       <c r="DC82" s="3"/>
       <c r="DD82" s="3"/>
       <c r="DE82" s="3"/>
-    </row>
-    <row r="83" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF82" s="3"/>
+      <c r="DG82" s="3"/>
+      <c r="DH82" s="3"/>
+    </row>
+    <row r="83" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB83" s="3"/>
       <c r="CC83" s="3"/>
       <c r="CD83" s="3"/>
@@ -9615,8 +9916,11 @@
       <c r="DC83" s="3"/>
       <c r="DD83" s="3"/>
       <c r="DE83" s="3"/>
-    </row>
-    <row r="84" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF83" s="3"/>
+      <c r="DG83" s="3"/>
+      <c r="DH83" s="3"/>
+    </row>
+    <row r="84" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB84" s="3"/>
       <c r="CC84" s="3"/>
       <c r="CD84" s="3"/>
@@ -9647,8 +9951,11 @@
       <c r="DC84" s="3"/>
       <c r="DD84" s="3"/>
       <c r="DE84" s="3"/>
-    </row>
-    <row r="85" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF84" s="3"/>
+      <c r="DG84" s="3"/>
+      <c r="DH84" s="3"/>
+    </row>
+    <row r="85" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB85" s="3"/>
       <c r="CC85" s="3"/>
       <c r="CD85" s="3"/>
@@ -9679,8 +9986,11 @@
       <c r="DC85" s="3"/>
       <c r="DD85" s="3"/>
       <c r="DE85" s="3"/>
-    </row>
-    <row r="86" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF85" s="3"/>
+      <c r="DG85" s="3"/>
+      <c r="DH85" s="3"/>
+    </row>
+    <row r="86" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB86" s="3"/>
       <c r="CC86" s="3"/>
       <c r="CD86" s="3"/>
@@ -9711,8 +10021,11 @@
       <c r="DC86" s="3"/>
       <c r="DD86" s="3"/>
       <c r="DE86" s="3"/>
-    </row>
-    <row r="87" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF86" s="3"/>
+      <c r="DG86" s="3"/>
+      <c r="DH86" s="3"/>
+    </row>
+    <row r="87" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB87" s="3"/>
       <c r="CC87" s="3"/>
       <c r="CD87" s="3"/>
@@ -9743,8 +10056,11 @@
       <c r="DC87" s="3"/>
       <c r="DD87" s="3"/>
       <c r="DE87" s="3"/>
-    </row>
-    <row r="88" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF87" s="3"/>
+      <c r="DG87" s="3"/>
+      <c r="DH87" s="3"/>
+    </row>
+    <row r="88" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB88" s="3"/>
       <c r="CC88" s="3"/>
       <c r="CD88" s="3"/>
@@ -9775,8 +10091,11 @@
       <c r="DC88" s="3"/>
       <c r="DD88" s="3"/>
       <c r="DE88" s="3"/>
-    </row>
-    <row r="89" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF88" s="3"/>
+      <c r="DG88" s="3"/>
+      <c r="DH88" s="3"/>
+    </row>
+    <row r="89" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB89" s="3"/>
       <c r="CC89" s="3"/>
       <c r="CD89" s="3"/>
@@ -9807,8 +10126,11 @@
       <c r="DC89" s="3"/>
       <c r="DD89" s="3"/>
       <c r="DE89" s="3"/>
-    </row>
-    <row r="90" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF89" s="3"/>
+      <c r="DG89" s="3"/>
+      <c r="DH89" s="3"/>
+    </row>
+    <row r="90" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB90" s="3"/>
       <c r="CC90" s="3"/>
       <c r="CD90" s="3"/>
@@ -9839,8 +10161,11 @@
       <c r="DC90" s="3"/>
       <c r="DD90" s="3"/>
       <c r="DE90" s="3"/>
-    </row>
-    <row r="91" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF90" s="3"/>
+      <c r="DG90" s="3"/>
+      <c r="DH90" s="3"/>
+    </row>
+    <row r="91" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB91" s="3"/>
       <c r="CC91" s="3"/>
       <c r="CD91" s="3"/>
@@ -9871,8 +10196,11 @@
       <c r="DC91" s="3"/>
       <c r="DD91" s="3"/>
       <c r="DE91" s="3"/>
-    </row>
-    <row r="92" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF91" s="3"/>
+      <c r="DG91" s="3"/>
+      <c r="DH91" s="3"/>
+    </row>
+    <row r="92" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB92" s="3"/>
       <c r="CC92" s="3"/>
       <c r="CD92" s="3"/>
@@ -9903,8 +10231,11 @@
       <c r="DC92" s="3"/>
       <c r="DD92" s="3"/>
       <c r="DE92" s="3"/>
-    </row>
-    <row r="93" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF92" s="3"/>
+      <c r="DG92" s="3"/>
+      <c r="DH92" s="3"/>
+    </row>
+    <row r="93" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB93" s="3"/>
       <c r="CC93" s="3"/>
       <c r="CD93" s="3"/>
@@ -9935,8 +10266,11 @@
       <c r="DC93" s="3"/>
       <c r="DD93" s="3"/>
       <c r="DE93" s="3"/>
-    </row>
-    <row r="94" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF93" s="3"/>
+      <c r="DG93" s="3"/>
+      <c r="DH93" s="3"/>
+    </row>
+    <row r="94" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB94" s="3"/>
       <c r="CC94" s="3"/>
       <c r="CD94" s="3"/>
@@ -9967,8 +10301,11 @@
       <c r="DC94" s="3"/>
       <c r="DD94" s="3"/>
       <c r="DE94" s="3"/>
-    </row>
-    <row r="95" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF94" s="3"/>
+      <c r="DG94" s="3"/>
+      <c r="DH94" s="3"/>
+    </row>
+    <row r="95" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB95" s="3"/>
       <c r="CC95" s="3"/>
       <c r="CD95" s="3"/>
@@ -9999,8 +10336,11 @@
       <c r="DC95" s="3"/>
       <c r="DD95" s="3"/>
       <c r="DE95" s="3"/>
-    </row>
-    <row r="96" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF95" s="3"/>
+      <c r="DG95" s="3"/>
+      <c r="DH95" s="3"/>
+    </row>
+    <row r="96" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB96" s="3"/>
       <c r="CC96" s="3"/>
       <c r="CD96" s="3"/>
@@ -10031,8 +10371,11 @@
       <c r="DC96" s="3"/>
       <c r="DD96" s="3"/>
       <c r="DE96" s="3"/>
-    </row>
-    <row r="97" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF96" s="3"/>
+      <c r="DG96" s="3"/>
+      <c r="DH96" s="3"/>
+    </row>
+    <row r="97" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB97" s="3"/>
       <c r="CC97" s="3"/>
       <c r="CD97" s="3"/>
@@ -10063,8 +10406,11 @@
       <c r="DC97" s="3"/>
       <c r="DD97" s="3"/>
       <c r="DE97" s="3"/>
-    </row>
-    <row r="98" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF97" s="3"/>
+      <c r="DG97" s="3"/>
+      <c r="DH97" s="3"/>
+    </row>
+    <row r="98" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB98" s="3"/>
       <c r="CC98" s="3"/>
       <c r="CD98" s="3"/>
@@ -10095,8 +10441,11 @@
       <c r="DC98" s="3"/>
       <c r="DD98" s="3"/>
       <c r="DE98" s="3"/>
-    </row>
-    <row r="99" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF98" s="3"/>
+      <c r="DG98" s="3"/>
+      <c r="DH98" s="3"/>
+    </row>
+    <row r="99" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB99" s="3"/>
       <c r="CC99" s="3"/>
       <c r="CD99" s="3"/>
@@ -10127,8 +10476,11 @@
       <c r="DC99" s="3"/>
       <c r="DD99" s="3"/>
       <c r="DE99" s="3"/>
-    </row>
-    <row r="100" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF99" s="3"/>
+      <c r="DG99" s="3"/>
+      <c r="DH99" s="3"/>
+    </row>
+    <row r="100" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB100" s="3"/>
       <c r="CC100" s="3"/>
       <c r="CD100" s="3"/>
@@ -10159,8 +10511,11 @@
       <c r="DC100" s="3"/>
       <c r="DD100" s="3"/>
       <c r="DE100" s="3"/>
-    </row>
-    <row r="101" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF100" s="3"/>
+      <c r="DG100" s="3"/>
+      <c r="DH100" s="3"/>
+    </row>
+    <row r="101" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB101" s="3"/>
       <c r="CC101" s="3"/>
       <c r="CD101" s="3"/>
@@ -10191,8 +10546,11 @@
       <c r="DC101" s="3"/>
       <c r="DD101" s="3"/>
       <c r="DE101" s="3"/>
-    </row>
-    <row r="102" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF101" s="3"/>
+      <c r="DG101" s="3"/>
+      <c r="DH101" s="3"/>
+    </row>
+    <row r="102" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB102" s="3"/>
       <c r="CC102" s="3"/>
       <c r="CD102" s="3"/>
@@ -10223,8 +10581,11 @@
       <c r="DC102" s="3"/>
       <c r="DD102" s="3"/>
       <c r="DE102" s="3"/>
-    </row>
-    <row r="103" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF102" s="3"/>
+      <c r="DG102" s="3"/>
+      <c r="DH102" s="3"/>
+    </row>
+    <row r="103" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB103" s="3"/>
       <c r="CC103" s="3"/>
       <c r="CD103" s="3"/>
@@ -10255,8 +10616,11 @@
       <c r="DC103" s="3"/>
       <c r="DD103" s="3"/>
       <c r="DE103" s="3"/>
-    </row>
-    <row r="104" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF103" s="3"/>
+      <c r="DG103" s="3"/>
+      <c r="DH103" s="3"/>
+    </row>
+    <row r="104" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB104" s="3"/>
       <c r="CC104" s="3"/>
       <c r="CD104" s="3"/>
@@ -10287,8 +10651,11 @@
       <c r="DC104" s="3"/>
       <c r="DD104" s="3"/>
       <c r="DE104" s="3"/>
-    </row>
-    <row r="105" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF104" s="3"/>
+      <c r="DG104" s="3"/>
+      <c r="DH104" s="3"/>
+    </row>
+    <row r="105" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB105" s="3"/>
       <c r="CC105" s="3"/>
       <c r="CD105" s="3"/>
@@ -10319,8 +10686,11 @@
       <c r="DC105" s="3"/>
       <c r="DD105" s="3"/>
       <c r="DE105" s="3"/>
-    </row>
-    <row r="106" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF105" s="3"/>
+      <c r="DG105" s="3"/>
+      <c r="DH105" s="3"/>
+    </row>
+    <row r="106" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB106" s="3"/>
       <c r="CC106" s="3"/>
       <c r="CD106" s="3"/>
@@ -10351,8 +10721,11 @@
       <c r="DC106" s="3"/>
       <c r="DD106" s="3"/>
       <c r="DE106" s="3"/>
-    </row>
-    <row r="107" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF106" s="3"/>
+      <c r="DG106" s="3"/>
+      <c r="DH106" s="3"/>
+    </row>
+    <row r="107" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB107" s="3"/>
       <c r="CC107" s="3"/>
       <c r="CD107" s="3"/>
@@ -10383,8 +10756,11 @@
       <c r="DC107" s="3"/>
       <c r="DD107" s="3"/>
       <c r="DE107" s="3"/>
-    </row>
-    <row r="108" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF107" s="3"/>
+      <c r="DG107" s="3"/>
+      <c r="DH107" s="3"/>
+    </row>
+    <row r="108" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB108" s="3"/>
       <c r="CC108" s="3"/>
       <c r="CD108" s="3"/>
@@ -10415,8 +10791,11 @@
       <c r="DC108" s="3"/>
       <c r="DD108" s="3"/>
       <c r="DE108" s="3"/>
-    </row>
-    <row r="109" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF108" s="3"/>
+      <c r="DG108" s="3"/>
+      <c r="DH108" s="3"/>
+    </row>
+    <row r="109" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB109" s="3"/>
       <c r="CC109" s="3"/>
       <c r="CD109" s="3"/>
@@ -10447,8 +10826,11 @@
       <c r="DC109" s="3"/>
       <c r="DD109" s="3"/>
       <c r="DE109" s="3"/>
-    </row>
-    <row r="110" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF109" s="3"/>
+      <c r="DG109" s="3"/>
+      <c r="DH109" s="3"/>
+    </row>
+    <row r="110" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB110" s="3"/>
       <c r="CC110" s="3"/>
       <c r="CD110" s="3"/>
@@ -10479,8 +10861,11 @@
       <c r="DC110" s="3"/>
       <c r="DD110" s="3"/>
       <c r="DE110" s="3"/>
-    </row>
-    <row r="111" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF110" s="3"/>
+      <c r="DG110" s="3"/>
+      <c r="DH110" s="3"/>
+    </row>
+    <row r="111" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB111" s="3"/>
       <c r="CC111" s="3"/>
       <c r="CD111" s="3"/>
@@ -10511,8 +10896,11 @@
       <c r="DC111" s="3"/>
       <c r="DD111" s="3"/>
       <c r="DE111" s="3"/>
-    </row>
-    <row r="112" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF111" s="3"/>
+      <c r="DG111" s="3"/>
+      <c r="DH111" s="3"/>
+    </row>
+    <row r="112" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB112" s="3"/>
       <c r="CC112" s="3"/>
       <c r="CD112" s="3"/>
@@ -10543,8 +10931,11 @@
       <c r="DC112" s="3"/>
       <c r="DD112" s="3"/>
       <c r="DE112" s="3"/>
-    </row>
-    <row r="113" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF112" s="3"/>
+      <c r="DG112" s="3"/>
+      <c r="DH112" s="3"/>
+    </row>
+    <row r="113" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB113" s="3"/>
       <c r="CC113" s="3"/>
       <c r="CD113" s="3"/>
@@ -10575,8 +10966,11 @@
       <c r="DC113" s="3"/>
       <c r="DD113" s="3"/>
       <c r="DE113" s="3"/>
-    </row>
-    <row r="114" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF113" s="3"/>
+      <c r="DG113" s="3"/>
+      <c r="DH113" s="3"/>
+    </row>
+    <row r="114" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB114" s="3"/>
       <c r="CC114" s="3"/>
       <c r="CD114" s="3"/>
@@ -10607,8 +11001,11 @@
       <c r="DC114" s="3"/>
       <c r="DD114" s="3"/>
       <c r="DE114" s="3"/>
-    </row>
-    <row r="115" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF114" s="3"/>
+      <c r="DG114" s="3"/>
+      <c r="DH114" s="3"/>
+    </row>
+    <row r="115" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB115" s="3"/>
       <c r="CC115" s="3"/>
       <c r="CD115" s="3"/>
@@ -10639,8 +11036,11 @@
       <c r="DC115" s="3"/>
       <c r="DD115" s="3"/>
       <c r="DE115" s="3"/>
-    </row>
-    <row r="116" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF115" s="3"/>
+      <c r="DG115" s="3"/>
+      <c r="DH115" s="3"/>
+    </row>
+    <row r="116" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB116" s="3"/>
       <c r="CC116" s="3"/>
       <c r="CD116" s="3"/>
@@ -10671,8 +11071,11 @@
       <c r="DC116" s="3"/>
       <c r="DD116" s="3"/>
       <c r="DE116" s="3"/>
-    </row>
-    <row r="117" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF116" s="3"/>
+      <c r="DG116" s="3"/>
+      <c r="DH116" s="3"/>
+    </row>
+    <row r="117" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB117" s="3"/>
       <c r="CC117" s="3"/>
       <c r="CD117" s="3"/>
@@ -10703,8 +11106,11 @@
       <c r="DC117" s="3"/>
       <c r="DD117" s="3"/>
       <c r="DE117" s="3"/>
-    </row>
-    <row r="118" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF117" s="3"/>
+      <c r="DG117" s="3"/>
+      <c r="DH117" s="3"/>
+    </row>
+    <row r="118" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB118" s="3"/>
       <c r="CC118" s="3"/>
       <c r="CD118" s="3"/>
@@ -10735,8 +11141,11 @@
       <c r="DC118" s="3"/>
       <c r="DD118" s="3"/>
       <c r="DE118" s="3"/>
-    </row>
-    <row r="119" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF118" s="3"/>
+      <c r="DG118" s="3"/>
+      <c r="DH118" s="3"/>
+    </row>
+    <row r="119" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB119" s="3"/>
       <c r="CC119" s="3"/>
       <c r="CD119" s="3"/>
@@ -10767,8 +11176,11 @@
       <c r="DC119" s="3"/>
       <c r="DD119" s="3"/>
       <c r="DE119" s="3"/>
-    </row>
-    <row r="120" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF119" s="3"/>
+      <c r="DG119" s="3"/>
+      <c r="DH119" s="3"/>
+    </row>
+    <row r="120" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB120" s="3"/>
       <c r="CC120" s="3"/>
       <c r="CD120" s="3"/>
@@ -10799,8 +11211,11 @@
       <c r="DC120" s="3"/>
       <c r="DD120" s="3"/>
       <c r="DE120" s="3"/>
-    </row>
-    <row r="121" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF120" s="3"/>
+      <c r="DG120" s="3"/>
+      <c r="DH120" s="3"/>
+    </row>
+    <row r="121" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB121" s="3"/>
       <c r="CC121" s="3"/>
       <c r="CD121" s="3"/>
@@ -10831,8 +11246,11 @@
       <c r="DC121" s="3"/>
       <c r="DD121" s="3"/>
       <c r="DE121" s="3"/>
-    </row>
-    <row r="122" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF121" s="3"/>
+      <c r="DG121" s="3"/>
+      <c r="DH121" s="3"/>
+    </row>
+    <row r="122" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB122" s="3"/>
       <c r="CC122" s="3"/>
       <c r="CD122" s="3"/>
@@ -10863,8 +11281,11 @@
       <c r="DC122" s="3"/>
       <c r="DD122" s="3"/>
       <c r="DE122" s="3"/>
-    </row>
-    <row r="123" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF122" s="3"/>
+      <c r="DG122" s="3"/>
+      <c r="DH122" s="3"/>
+    </row>
+    <row r="123" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB123" s="3"/>
       <c r="CC123" s="3"/>
       <c r="CD123" s="3"/>
@@ -10895,8 +11316,11 @@
       <c r="DC123" s="3"/>
       <c r="DD123" s="3"/>
       <c r="DE123" s="3"/>
-    </row>
-    <row r="124" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF123" s="3"/>
+      <c r="DG123" s="3"/>
+      <c r="DH123" s="3"/>
+    </row>
+    <row r="124" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB124" s="3"/>
       <c r="CC124" s="3"/>
       <c r="CD124" s="3"/>
@@ -10927,8 +11351,11 @@
       <c r="DC124" s="3"/>
       <c r="DD124" s="3"/>
       <c r="DE124" s="3"/>
-    </row>
-    <row r="125" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF124" s="3"/>
+      <c r="DG124" s="3"/>
+      <c r="DH124" s="3"/>
+    </row>
+    <row r="125" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB125" s="3"/>
       <c r="CC125" s="3"/>
       <c r="CD125" s="3"/>
@@ -10959,8 +11386,11 @@
       <c r="DC125" s="3"/>
       <c r="DD125" s="3"/>
       <c r="DE125" s="3"/>
-    </row>
-    <row r="126" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF125" s="3"/>
+      <c r="DG125" s="3"/>
+      <c r="DH125" s="3"/>
+    </row>
+    <row r="126" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB126" s="3"/>
       <c r="CC126" s="3"/>
       <c r="CD126" s="3"/>
@@ -10991,8 +11421,11 @@
       <c r="DC126" s="3"/>
       <c r="DD126" s="3"/>
       <c r="DE126" s="3"/>
-    </row>
-    <row r="127" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF126" s="3"/>
+      <c r="DG126" s="3"/>
+      <c r="DH126" s="3"/>
+    </row>
+    <row r="127" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB127" s="3"/>
       <c r="CC127" s="3"/>
       <c r="CD127" s="3"/>
@@ -11023,8 +11456,11 @@
       <c r="DC127" s="3"/>
       <c r="DD127" s="3"/>
       <c r="DE127" s="3"/>
-    </row>
-    <row r="128" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF127" s="3"/>
+      <c r="DG127" s="3"/>
+      <c r="DH127" s="3"/>
+    </row>
+    <row r="128" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB128" s="3"/>
       <c r="CC128" s="3"/>
       <c r="CD128" s="3"/>
@@ -11055,8 +11491,11 @@
       <c r="DC128" s="3"/>
       <c r="DD128" s="3"/>
       <c r="DE128" s="3"/>
-    </row>
-    <row r="129" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF128" s="3"/>
+      <c r="DG128" s="3"/>
+      <c r="DH128" s="3"/>
+    </row>
+    <row r="129" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB129" s="3"/>
       <c r="CC129" s="3"/>
       <c r="CD129" s="3"/>
@@ -11087,8 +11526,11 @@
       <c r="DC129" s="3"/>
       <c r="DD129" s="3"/>
       <c r="DE129" s="3"/>
-    </row>
-    <row r="130" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF129" s="3"/>
+      <c r="DG129" s="3"/>
+      <c r="DH129" s="3"/>
+    </row>
+    <row r="130" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB130" s="3"/>
       <c r="CC130" s="3"/>
       <c r="CD130" s="3"/>
@@ -11119,8 +11561,11 @@
       <c r="DC130" s="3"/>
       <c r="DD130" s="3"/>
       <c r="DE130" s="3"/>
-    </row>
-    <row r="131" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF130" s="3"/>
+      <c r="DG130" s="3"/>
+      <c r="DH130" s="3"/>
+    </row>
+    <row r="131" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB131" s="3"/>
       <c r="CC131" s="3"/>
       <c r="CD131" s="3"/>
@@ -11151,8 +11596,11 @@
       <c r="DC131" s="3"/>
       <c r="DD131" s="3"/>
       <c r="DE131" s="3"/>
-    </row>
-    <row r="132" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF131" s="3"/>
+      <c r="DG131" s="3"/>
+      <c r="DH131" s="3"/>
+    </row>
+    <row r="132" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB132" s="3"/>
       <c r="CC132" s="3"/>
       <c r="CD132" s="3"/>
@@ -11183,8 +11631,11 @@
       <c r="DC132" s="3"/>
       <c r="DD132" s="3"/>
       <c r="DE132" s="3"/>
-    </row>
-    <row r="133" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF132" s="3"/>
+      <c r="DG132" s="3"/>
+      <c r="DH132" s="3"/>
+    </row>
+    <row r="133" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB133" s="3"/>
       <c r="CC133" s="3"/>
       <c r="CD133" s="3"/>
@@ -11215,8 +11666,11 @@
       <c r="DC133" s="3"/>
       <c r="DD133" s="3"/>
       <c r="DE133" s="3"/>
-    </row>
-    <row r="134" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF133" s="3"/>
+      <c r="DG133" s="3"/>
+      <c r="DH133" s="3"/>
+    </row>
+    <row r="134" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB134" s="3"/>
       <c r="CC134" s="3"/>
       <c r="CD134" s="3"/>
@@ -11247,8 +11701,11 @@
       <c r="DC134" s="3"/>
       <c r="DD134" s="3"/>
       <c r="DE134" s="3"/>
-    </row>
-    <row r="135" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF134" s="3"/>
+      <c r="DG134" s="3"/>
+      <c r="DH134" s="3"/>
+    </row>
+    <row r="135" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB135" s="3"/>
       <c r="CC135" s="3"/>
       <c r="CD135" s="3"/>
@@ -11279,8 +11736,11 @@
       <c r="DC135" s="3"/>
       <c r="DD135" s="3"/>
       <c r="DE135" s="3"/>
-    </row>
-    <row r="136" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF135" s="3"/>
+      <c r="DG135" s="3"/>
+      <c r="DH135" s="3"/>
+    </row>
+    <row r="136" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB136" s="3"/>
       <c r="CC136" s="3"/>
       <c r="CD136" s="3"/>
@@ -11311,8 +11771,11 @@
       <c r="DC136" s="3"/>
       <c r="DD136" s="3"/>
       <c r="DE136" s="3"/>
-    </row>
-    <row r="137" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF136" s="3"/>
+      <c r="DG136" s="3"/>
+      <c r="DH136" s="3"/>
+    </row>
+    <row r="137" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB137" s="3"/>
       <c r="CC137" s="3"/>
       <c r="CD137" s="3"/>
@@ -11343,8 +11806,11 @@
       <c r="DC137" s="3"/>
       <c r="DD137" s="3"/>
       <c r="DE137" s="3"/>
-    </row>
-    <row r="138" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF137" s="3"/>
+      <c r="DG137" s="3"/>
+      <c r="DH137" s="3"/>
+    </row>
+    <row r="138" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB138" s="3"/>
       <c r="CC138" s="3"/>
       <c r="CD138" s="3"/>
@@ -11375,8 +11841,11 @@
       <c r="DC138" s="3"/>
       <c r="DD138" s="3"/>
       <c r="DE138" s="3"/>
-    </row>
-    <row r="139" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF138" s="3"/>
+      <c r="DG138" s="3"/>
+      <c r="DH138" s="3"/>
+    </row>
+    <row r="139" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB139" s="3"/>
       <c r="CC139" s="3"/>
       <c r="CD139" s="3"/>
@@ -11407,8 +11876,11 @@
       <c r="DC139" s="3"/>
       <c r="DD139" s="3"/>
       <c r="DE139" s="3"/>
-    </row>
-    <row r="140" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF139" s="3"/>
+      <c r="DG139" s="3"/>
+      <c r="DH139" s="3"/>
+    </row>
+    <row r="140" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB140" s="3"/>
       <c r="CC140" s="3"/>
       <c r="CD140" s="3"/>
@@ -11439,8 +11911,11 @@
       <c r="DC140" s="3"/>
       <c r="DD140" s="3"/>
       <c r="DE140" s="3"/>
-    </row>
-    <row r="141" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF140" s="3"/>
+      <c r="DG140" s="3"/>
+      <c r="DH140" s="3"/>
+    </row>
+    <row r="141" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB141" s="3"/>
       <c r="CC141" s="3"/>
       <c r="CD141" s="3"/>
@@ -11471,8 +11946,11 @@
       <c r="DC141" s="3"/>
       <c r="DD141" s="3"/>
       <c r="DE141" s="3"/>
-    </row>
-    <row r="142" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF141" s="3"/>
+      <c r="DG141" s="3"/>
+      <c r="DH141" s="3"/>
+    </row>
+    <row r="142" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB142" s="3"/>
       <c r="CC142" s="3"/>
       <c r="CD142" s="3"/>
@@ -11503,8 +11981,11 @@
       <c r="DC142" s="3"/>
       <c r="DD142" s="3"/>
       <c r="DE142" s="3"/>
-    </row>
-    <row r="143" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF142" s="3"/>
+      <c r="DG142" s="3"/>
+      <c r="DH142" s="3"/>
+    </row>
+    <row r="143" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB143" s="3"/>
       <c r="CC143" s="3"/>
       <c r="CD143" s="3"/>
@@ -11535,8 +12016,11 @@
       <c r="DC143" s="3"/>
       <c r="DD143" s="3"/>
       <c r="DE143" s="3"/>
-    </row>
-    <row r="144" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF143" s="3"/>
+      <c r="DG143" s="3"/>
+      <c r="DH143" s="3"/>
+    </row>
+    <row r="144" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB144" s="3"/>
       <c r="CC144" s="3"/>
       <c r="CD144" s="3"/>
@@ -11567,8 +12051,11 @@
       <c r="DC144" s="3"/>
       <c r="DD144" s="3"/>
       <c r="DE144" s="3"/>
-    </row>
-    <row r="145" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF144" s="3"/>
+      <c r="DG144" s="3"/>
+      <c r="DH144" s="3"/>
+    </row>
+    <row r="145" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB145" s="3"/>
       <c r="CC145" s="3"/>
       <c r="CD145" s="3"/>
@@ -11599,8 +12086,11 @@
       <c r="DC145" s="3"/>
       <c r="DD145" s="3"/>
       <c r="DE145" s="3"/>
-    </row>
-    <row r="146" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF145" s="3"/>
+      <c r="DG145" s="3"/>
+      <c r="DH145" s="3"/>
+    </row>
+    <row r="146" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB146" s="3"/>
       <c r="CC146" s="3"/>
       <c r="CD146" s="3"/>
@@ -11631,8 +12121,11 @@
       <c r="DC146" s="3"/>
       <c r="DD146" s="3"/>
       <c r="DE146" s="3"/>
-    </row>
-    <row r="147" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF146" s="3"/>
+      <c r="DG146" s="3"/>
+      <c r="DH146" s="3"/>
+    </row>
+    <row r="147" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB147" s="3"/>
       <c r="CC147" s="3"/>
       <c r="CD147" s="3"/>
@@ -11663,8 +12156,11 @@
       <c r="DC147" s="3"/>
       <c r="DD147" s="3"/>
       <c r="DE147" s="3"/>
-    </row>
-    <row r="148" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF147" s="3"/>
+      <c r="DG147" s="3"/>
+      <c r="DH147" s="3"/>
+    </row>
+    <row r="148" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB148" s="3"/>
       <c r="CC148" s="3"/>
       <c r="CD148" s="3"/>
@@ -11695,8 +12191,11 @@
       <c r="DC148" s="3"/>
       <c r="DD148" s="3"/>
       <c r="DE148" s="3"/>
-    </row>
-    <row r="149" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF148" s="3"/>
+      <c r="DG148" s="3"/>
+      <c r="DH148" s="3"/>
+    </row>
+    <row r="149" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB149" s="3"/>
       <c r="CC149" s="3"/>
       <c r="CD149" s="3"/>
@@ -11727,8 +12226,11 @@
       <c r="DC149" s="3"/>
       <c r="DD149" s="3"/>
       <c r="DE149" s="3"/>
-    </row>
-    <row r="150" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF149" s="3"/>
+      <c r="DG149" s="3"/>
+      <c r="DH149" s="3"/>
+    </row>
+    <row r="150" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB150" s="3"/>
       <c r="CC150" s="3"/>
       <c r="CD150" s="3"/>
@@ -11759,8 +12261,11 @@
       <c r="DC150" s="3"/>
       <c r="DD150" s="3"/>
       <c r="DE150" s="3"/>
-    </row>
-    <row r="151" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF150" s="3"/>
+      <c r="DG150" s="3"/>
+      <c r="DH150" s="3"/>
+    </row>
+    <row r="151" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB151" s="3"/>
       <c r="CC151" s="3"/>
       <c r="CD151" s="3"/>
@@ -11791,8 +12296,11 @@
       <c r="DC151" s="3"/>
       <c r="DD151" s="3"/>
       <c r="DE151" s="3"/>
-    </row>
-    <row r="152" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF151" s="3"/>
+      <c r="DG151" s="3"/>
+      <c r="DH151" s="3"/>
+    </row>
+    <row r="152" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB152" s="3"/>
       <c r="CC152" s="3"/>
       <c r="CD152" s="3"/>
@@ -11823,8 +12331,11 @@
       <c r="DC152" s="3"/>
       <c r="DD152" s="3"/>
       <c r="DE152" s="3"/>
-    </row>
-    <row r="153" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF152" s="3"/>
+      <c r="DG152" s="3"/>
+      <c r="DH152" s="3"/>
+    </row>
+    <row r="153" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB153" s="3"/>
       <c r="CC153" s="3"/>
       <c r="CD153" s="3"/>
@@ -11855,8 +12366,11 @@
       <c r="DC153" s="3"/>
       <c r="DD153" s="3"/>
       <c r="DE153" s="3"/>
-    </row>
-    <row r="154" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF153" s="3"/>
+      <c r="DG153" s="3"/>
+      <c r="DH153" s="3"/>
+    </row>
+    <row r="154" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB154" s="3"/>
       <c r="CC154" s="3"/>
       <c r="CD154" s="3"/>
@@ -11887,8 +12401,11 @@
       <c r="DC154" s="3"/>
       <c r="DD154" s="3"/>
       <c r="DE154" s="3"/>
-    </row>
-    <row r="155" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF154" s="3"/>
+      <c r="DG154" s="3"/>
+      <c r="DH154" s="3"/>
+    </row>
+    <row r="155" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB155" s="3"/>
       <c r="CC155" s="3"/>
       <c r="CD155" s="3"/>
@@ -11919,8 +12436,11 @@
       <c r="DC155" s="3"/>
       <c r="DD155" s="3"/>
       <c r="DE155" s="3"/>
-    </row>
-    <row r="156" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF155" s="3"/>
+      <c r="DG155" s="3"/>
+      <c r="DH155" s="3"/>
+    </row>
+    <row r="156" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB156" s="3"/>
       <c r="CC156" s="3"/>
       <c r="CD156" s="3"/>
@@ -11951,8 +12471,11 @@
       <c r="DC156" s="3"/>
       <c r="DD156" s="3"/>
       <c r="DE156" s="3"/>
-    </row>
-    <row r="157" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF156" s="3"/>
+      <c r="DG156" s="3"/>
+      <c r="DH156" s="3"/>
+    </row>
+    <row r="157" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB157" s="3"/>
       <c r="CC157" s="3"/>
       <c r="CD157" s="3"/>
@@ -11983,8 +12506,11 @@
       <c r="DC157" s="3"/>
       <c r="DD157" s="3"/>
       <c r="DE157" s="3"/>
-    </row>
-    <row r="158" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF157" s="3"/>
+      <c r="DG157" s="3"/>
+      <c r="DH157" s="3"/>
+    </row>
+    <row r="158" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB158" s="3"/>
       <c r="CC158" s="3"/>
       <c r="CD158" s="3"/>
@@ -12015,8 +12541,11 @@
       <c r="DC158" s="3"/>
       <c r="DD158" s="3"/>
       <c r="DE158" s="3"/>
-    </row>
-    <row r="159" spans="80:109" x14ac:dyDescent="0.15">
+      <c r="DF158" s="3"/>
+      <c r="DG158" s="3"/>
+      <c r="DH158" s="3"/>
+    </row>
+    <row r="159" spans="80:112" x14ac:dyDescent="0.15">
       <c r="CB159" s="3"/>
       <c r="CC159" s="3"/>
       <c r="CD159" s="3"/>
@@ -12047,6 +12576,9 @@
       <c r="DC159" s="3"/>
       <c r="DD159" s="3"/>
       <c r="DE159" s="3"/>
+      <c r="DF159" s="3"/>
+      <c r="DG159" s="3"/>
+      <c r="DH159" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -12060,8 +12592,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:GX91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DU1" workbookViewId="0">
-      <selection activeCell="ET11" sqref="ET11"/>
+    <sheetView topLeftCell="DU1" workbookViewId="0">
+      <selection activeCell="FD8" sqref="FD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13252,7 +13784,7 @@
       <c r="EF3" s="11">
         <v>3</v>
       </c>
-      <c r="EG3" s="11">
+      <c r="EG3" s="12">
         <v>4</v>
       </c>
       <c r="EH3" s="12">
@@ -13267,28 +13799,28 @@
       <c r="EK3" s="12">
         <v>4</v>
       </c>
-      <c r="EL3" s="12">
+      <c r="EL3" s="19">
         <v>5</v>
       </c>
-      <c r="EM3" s="12">
+      <c r="EM3" s="19">
         <v>5</v>
       </c>
-      <c r="EN3" s="12">
+      <c r="EN3" s="19">
         <v>6</v>
       </c>
-      <c r="EO3" s="12">
+      <c r="EO3" s="19">
         <v>6</v>
       </c>
-      <c r="EP3" s="12">
+      <c r="EP3" s="19">
         <v>6</v>
       </c>
-      <c r="EQ3" s="12">
+      <c r="EQ3" s="19">
         <v>6</v>
       </c>
-      <c r="ER3" s="12">
+      <c r="ER3" s="19">
         <v>6</v>
       </c>
-      <c r="ES3" s="12">
+      <c r="ES3" s="19">
         <v>6</v>
       </c>
       <c r="ET3" s="18">
@@ -13303,40 +13835,40 @@
       <c r="EW3" s="18">
         <v>10</v>
       </c>
-      <c r="EX3" s="18">
+      <c r="EX3" s="14">
         <v>11</v>
       </c>
-      <c r="EY3" s="18">
+      <c r="EY3" s="14">
         <v>11</v>
       </c>
-      <c r="EZ3" s="18">
+      <c r="EZ3" s="14">
         <v>11</v>
       </c>
-      <c r="FA3" s="18">
+      <c r="FA3" s="14">
         <v>11</v>
       </c>
-      <c r="FB3" s="18">
+      <c r="FB3" s="14">
         <v>11</v>
       </c>
-      <c r="FC3" s="18">
+      <c r="FC3" s="14">
         <v>12</v>
       </c>
-      <c r="FD3" s="18">
+      <c r="FD3" s="14">
         <v>12</v>
       </c>
-      <c r="FE3" s="18">
+      <c r="FE3" s="14">
         <v>12</v>
       </c>
-      <c r="FF3" s="18">
+      <c r="FF3" s="14">
         <v>12</v>
       </c>
-      <c r="FG3" s="18">
+      <c r="FG3" s="14">
         <v>12</v>
       </c>
-      <c r="FH3" s="18">
+      <c r="FH3" s="19">
         <v>13</v>
       </c>
-      <c r="FI3" s="18">
+      <c r="FI3" s="19">
         <v>13</v>
       </c>
       <c r="FJ3" s="19">
